--- a/Programació ASIX1 M0373.xlsx
+++ b/Programació ASIX1 M0373.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupstucom-my.sharepoint.com/personal/llorenc_huguet_365_stucom_com/Documents/Documentos/GitHub/LenguajeMarcas0373/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BBF9089-76FE-478E-9BA6-B69A9EF982EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{2EE2D5E4-3E7A-4888-93DA-21257C7ED34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8CE7B87-DCB0-4B9C-9285-C0D0C96E857F}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8865" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-24840" yWindow="-5280" windowWidth="14400" windowHeight="7215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="166">
   <si>
     <t>CAPÇALERA</t>
   </si>
@@ -84,12 +84,76 @@
   </si>
   <si>
     <t>RA1 - Reconeix les característiques de llenguatges de marques analitzant i interpretant fragments de codi.
+Criteris de evaluacion
+1.1 - Identifica les característiques generals dels llenguatges de marques.
+1.2 - Reconeix els avantatges que proporcionen al tractament de la informació.
+1.3 - Classifica els llenguatges de marques i n’identifica els més rellevants.
+1.4 - Diferencia els àmbits d'aplicació dels llenguatges de marques.
+1.5 - Reconeix la necessitat i els àmbits específics d'aplicació d'un llenguatge de marques de propòsit general.
+1.6 - Analitza les característiques pròpies de diferents llenguatges de marques.
+1.7 - Identifica l'estructura d'un document i les regles sintàctiques.
+1.8 - Contrasta la necessitat de crear documents ben formats i la influència en el processament.
+1.9 - Identifica els avantatges que aporten els espais de noms.
 RA2 - Utilitza llenguatges de marques per a la transmissió i presentació de informació a través del web analitzant l'estructura dels documents i identificant-ne els elements.
+Criteris de evaluacion
+2.1 - Identifica i classifica els llenguatges de marques relacionats amb el web i les diferents versions i estàndards.
+2.2 - Analitza l'estructura d'un document HTML i n’identifica les seccions que el componen.
+2.3 - Reconeix la funcionalitat de les principals etiquetes i els atributs del llenguatge HTML.
+2.4 - Estableix les semblances i diferències entre les diferents versions d’HTML.
+2.5 - Utilitza eines per crear documents web.
+2.6 - Identifica els avantatges que aporta la utilització de fulls d'estil.
+2.7 - Aplica fulls d'estil.
+2.8 - Valida documents HTML i CSS.
+2.9 - Identifica les tecnologies en què es basa la sindicació de continguts.
+2.10 - Reconeix els àmbits d'aplicació de la sindicació de continguts.
 RA3 - Accedeix i manipula documents web utilitzant llenguatges de guions de client.
+Criteris de evaluacion
+3.1 - Identifica i classifica els llenguatges de guions de client relacionats amb el web i les diferents versions i estàndards.
+3.2 - Identifica la sintaxi bàsica dels llenguatges de guions de client.
+3.3 - Utilitza mètodes per a la selecció i l'accés dels diferents elements d'un document web.
+3.4 - Crea i modifica elements de documents web.
+3.5 - Elimina elements de documents web.
+3.6 - Realitza modificacions sobre els estils d'un document web.
 RA4 - Estableix mecanismes de validació de documents per a l'intercanvi d'informació utilitzant mètodes per definir-ne la sintaxi i l'estructura.
+Criteris de evaluacion
+4.1 - Estableix la necessitat de descriure la informació transmesa als documents i les seves regles.
+4.2 - Identifica les tecnologies relacionades amb la definició de documents.
+4.3 - Analitza l'estructura i la sintaxi específica utilitzada en la descripció.
+4.4 - Crea descripcions de documents.
+4.5 - Utilitza descripcions en l'elaboració i la validació de documents.
+4.6 - Associa les descripcions amb els documents.
+4.7 - Utilitza eines específiques de validació.
 RA5 - Realitza conversions sobre documents per a l'intercanvi de informació utilitzant tècniques, llenguatges i eines de processament.
+Criteris de evaluacion
+5.1 - Identifica la necessitat de la conversió de documents per l'intercanvi de la informació.
+5.2 - Estableix àmbits aplicables.
+5.3 - Analitza les tecnologies implicades i el mode de funcionament.
+5.4 - Descriu la sintaxi específica utilitzada a la conversió i adaptació de documents per a l'intercanvi d'informació.
+5.5 - Crea especificacions de conversió.
+5.6 - Identifica i caracteritza eines específiques relacionades amb la conversió de documents per a l'intercanvi d'informació.
+5.7 - Realitza conversions sobre documents per a l'intercanvi d'informació.
 RA6 - Gestiona la informació en formats d'intercanvi de dades analitzant i utilitzant tecnologies d'emmagatzematge i llenguatges de consulta.
-RA7 - Efectua operacions amb sistemes empresarials de gestió d'informació realitzant tasques d'importació, integració, assegurament i extracció de la informació.</t>
+Criteris de evaluacion
+6.1 - Identifica els mètodes principals d'emmagatzematge de la informació utilitzats en documents d'intercanvi de dades.
+6.2 - Identifica els avantatges i els inconvenients d'emmagatzemar informació en formats d'intercanvi de dades.
+6.3 - Estableix tecnologies eficients d'emmagatzematge d'informació en funció de les característiques.
+6.4 - Identifica llenguatges i eines per al tractament i emmagatzematge d'informació i la seva inclusió en documents d'intercanvi de dades.
+6.5 - Utilitza llenguatges de consulta i manipulació en documents d'intercanvi de dades.
+6.6 - Utilitza sistemes gestors de bases de dades relacionals en l'emmagatzematge d'informació en formats d'intercanvi de dades.
+6.7 - Utilitza tècniques específiques per a crear documents d'intercanvi de dades a partir d'informació emmagatzemada en bases de dades relacionals.
+6.8 - Identifica les característiques dels sistemes.
+6.9 - Utilitza eines per gestionar la informació emmagatzemada en bases de dades natives.
+RA7 - Efectua operacions amb sistemes empresarials de gestió d'informació realitzant tasques d'importació, integració, assegurament i extracció de la informació.
+Criteris de evaluacion
+7.1 - Identifica els principals sistemes de gestió empresarial.
+7.2 - Reconeix els avantatges dels sistemes de gestió d'informació empresarials.
+7.3 - Avalua les característiques de les aplicacions de gestió empresarial principals.
+7.4 - Instal·la aplicacions de gestió de la informació empresarial.
+7.5 - Configura i s'han administrat les aplicacions.
+7.6 - Estableix i verifica mecanismes d'accés segur a la informació.
+7.7 - Genera informes.
+7.8 - Realitza procediments d'extracció d'informació per al tractament i la incorporació a diversos sistemes.
+7.9 - Elabora documents relatius a l'explotació de l'aplicació.</t>
   </si>
   <si>
     <t>EVALUACIÓ I TEMPORALITZACIÓ</t>
@@ -135,6 +199,12 @@
     <t>RA7</t>
   </si>
   <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>CAs</t>
+  </si>
+  <si>
     <t>S1</t>
   </si>
   <si>
@@ -150,6 +220,9 @@
     <t>Llenguatges de marques - Introducció</t>
   </si>
   <si>
+    <t>1.1,1.2,1.3,1.4,1.5</t>
+  </si>
+  <si>
     <t>S2</t>
   </si>
   <si>
@@ -159,6 +232,9 @@
     <t>HTML - Introducció</t>
   </si>
   <si>
+    <t>1.6,1.7,1.8,1.9</t>
+  </si>
+  <si>
     <t>S3</t>
   </si>
   <si>
@@ -183,6 +259,9 @@
     <t>Test RA1</t>
   </si>
   <si>
+    <t>1.1,1.2,1.3,1.4,1.5,1.6,1.7,1.8,1.9</t>
+  </si>
+  <si>
     <t>S5</t>
   </si>
   <si>
@@ -195,6 +274,9 @@
     <t>CSS - Introducció</t>
   </si>
   <si>
+    <t>2.1,2.2,2.3,2.4,2.5</t>
+  </si>
+  <si>
     <t>S6</t>
   </si>
   <si>
@@ -207,6 +289,9 @@
     <t>x</t>
   </si>
   <si>
+    <t>2.7,2.8,2.9,2.10</t>
+  </si>
+  <si>
     <t>S7</t>
   </si>
   <si>
@@ -225,6 +310,9 @@
     <t>Test RA2</t>
   </si>
   <si>
+    <t>2.6,2.7,2.8</t>
+  </si>
+  <si>
     <t>S9</t>
   </si>
   <si>
@@ -237,6 +325,9 @@
     <t>Llenguatge guions de client -Javascript</t>
   </si>
   <si>
+    <t>3.1,3.2</t>
+  </si>
+  <si>
     <t>S10</t>
   </si>
   <si>
@@ -252,6 +343,9 @@
     <t>Formularis amb javascript</t>
   </si>
   <si>
+    <t>3.3,3.4,3.5,3.6</t>
+  </si>
+  <si>
     <t>S12</t>
   </si>
   <si>
@@ -267,6 +361,9 @@
     <t>Llenguatge guions de client -PHP</t>
   </si>
   <si>
+    <t>3.1,3.2,3.3</t>
+  </si>
+  <si>
     <t>S14</t>
   </si>
   <si>
@@ -300,6 +397,9 @@
     <t>JSON</t>
   </si>
   <si>
+    <t>4.1,4.2,4.3</t>
+  </si>
+  <si>
     <t>S18</t>
   </si>
   <si>
@@ -312,6 +412,9 @@
     <t>Test RA3</t>
   </si>
   <si>
+    <t>3.1,3.2,3.3,3.4,3.5,3.6</t>
+  </si>
+  <si>
     <t>S19</t>
   </si>
   <si>
@@ -321,6 +424,9 @@
     <t>Gestió d'informació XML</t>
   </si>
   <si>
+    <t>4.1,4.2,4.3,4.4,4.5,4.6,4.7,5.1,5.2,5.3</t>
+  </si>
+  <si>
     <t>S20</t>
   </si>
   <si>
@@ -336,6 +442,9 @@
     <t>Presentació informació XML</t>
   </si>
   <si>
+    <t>4.4,4.5,4.6,5.4,5.5,5.6,5.7</t>
+  </si>
+  <si>
     <t>S22</t>
   </si>
   <si>
@@ -351,6 +460,9 @@
     <t>Anàl.lisis informació XML</t>
   </si>
   <si>
+    <t>4.5,4.6,4.7,5.5,5.6,5.7</t>
+  </si>
+  <si>
     <t>S24</t>
   </si>
   <si>
@@ -363,6 +475,9 @@
     <t>Test RA4-RA5</t>
   </si>
   <si>
+    <t>4.5,4.6,4.7,5.4,5.5,5.6,5.7</t>
+  </si>
+  <si>
     <t>S25</t>
   </si>
   <si>
@@ -375,6 +490,9 @@
     <t>Gestió de la informació amb suport de base de dades: XML, JSON, MySQL</t>
   </si>
   <si>
+    <t>6.1,6.2,6.3,6.4,6.5,6.6,6.7,6.8,6.9</t>
+  </si>
+  <si>
     <t>S26</t>
   </si>
   <si>
@@ -393,6 +511,9 @@
     <t>Test RA6</t>
   </si>
   <si>
+    <t>6.5,6.6,6.7,6.8,6.9</t>
+  </si>
+  <si>
     <t>S28</t>
   </si>
   <si>
@@ -405,6 +526,9 @@
     <t>Gestió amb programari lliure</t>
   </si>
   <si>
+    <t>7.1,7.2,7.3,7.4,7.5,7.6,7.7,7.8,7.9</t>
+  </si>
+  <si>
     <t>S29</t>
   </si>
   <si>
@@ -423,6 +547,9 @@
     <t>Gestió amb programari propietari</t>
   </si>
   <si>
+    <t>7.3,7.4,7.5,7.6,7.7,7.8,7.9</t>
+  </si>
+  <si>
     <t>S32</t>
   </si>
   <si>
@@ -441,6 +568,9 @@
     <t>Test RA7</t>
   </si>
   <si>
+    <t>7.4,7.5,7.6,7.7,7.8</t>
+  </si>
+  <si>
     <t>SUMA</t>
   </si>
   <si>
@@ -453,8 +583,21 @@
     <t>RECUPERACIÓ</t>
   </si>
   <si>
-    <t>En cas de no superar el RA en la convocatòria ordinària, l’alumne el podrà recuperar a la convocatòria extraordinària.
-Convocatòria extraordinària: és aquella a la qual té dret qualsevol alumne que no hagi superat el RA en la convocatòria ordinària, independentment de la seva assistència a l’aula. Constitueix l’última oportunitat per superar un RA durant el curs. En aquesta convocatòria no es tenen en compte les proves avaluables realitzades en l’ordinària. La nota màxima que es pot obtenir és de 7. El període establert pel Centre per a la seva realització és el mes de juny (consulteu les dates oficials)</t>
+    <t>Sistema d’Avaluació i Convocatòries del Mòdul
+L’avaluació del mòdul es basa en la superació dels diferents Resultats d’Aprenentatge (RA), que es poden aprovar mitjançant dues vies: convocatòria ordinària (avaluació contínua) i convocatòria extraordinària (recuperació).
+Convocatòria Ordinària (Avaluació Contínua)
+La convocatòria ordinària es desenvolupa de forma presencial a l’aula, i contempla tant les proves avaluables com l’actitud de l’alumne durant el desenvolupament del RA. Els professors poden decidir les dates de les proves en funció del ritme i implicació del grup en les activitats no avaluables.
+Els criteris d’avaluació inclouen:
+Assistència mínima del 80% de les hores del RA. Totes les absències es consideren no assistències, encara que estiguin justificades. La justificació permet als professors aplicar criteris excepcionals si ho consideren necessari.
+Superació de les proves escrites amb una nota igual o superior a 4. Aquesta condició és obligatòria per poder avaluar el RA.
+Activitats grupals que han de ser entregades dins del termini establert, presentades i defensades tant grupalment com individualment. Si el seguiment del grup no és favorable, la nota de l’activitat serà 0 per a tots els membres. Les activitats entregades fora de termini també tindran una nota de 0.
+En cas de no superar el RA en aquesta convocatòria, l’alumne té dret a presentar-se a la convocatòria extraordinària.
+Convocatòria Extraordinària (Recuperació)
+La convocatòria extraordinària és l’última oportunitat que té l’alumne per superar un RA durant el curs. Aquesta convocatòria és independent de l’assistència a l’aula i no es tenen en compte les proves ni activitats de la convocatòria ordinària.
+Característiques principals:
+Nota màxima que es pot obtenir: 10.
+Si l’alumne no supera un RA, suspèn el mòdul sencer  i haurà de repetir-lo el curs vinent.
+El període establert pel centre per a la realització d’aquesta convocatòria és al juny</t>
   </si>
   <si>
     <t>METODOLOGIA</t>
@@ -462,7 +605,6 @@
   <si>
     <t>El professor explica els continguts de forma pràctica mitjançant petits exercicis i amb l’ajut de l’entorn de desenvolupament. La documentació està disponible al campus en format digital.
 Pràctiques (local i servidor), presentacions i proves.
-Per poder ser avaluat cal haver assistit, com a mínim, al 80% de les hores del mòdul. Totes les absències es consideren no assistència a l’aula, tant si estan justificades com si no. Tot i així, la justificació de les absències permetrà al professorat prendre decisions extraordinàries en aquells casos que es considerin necessaris.
 L'avaluació es basarà en 3 elements: pràctiques evaluables individuals i en grup, entrega de portafoli amb les activitats de les práctiques, i finalment, exàmens individuals. Es desenvolupa de forma presencial a l’aula i es valoren tant les proves avaluables realitzades com l’actitud mostrada per l’alumne.
 Si el seguiment d’una activitat grupal no és favorable, implica que la pràctica tindrà una nota de 0 per tots els membres del grup. Una activitat grupal lliurada fora del termini establert tindrà una valoració de 0. Cadascuna de les activitats lliurades ha de ser presentada i defensada tan grupal com individualment.
 Pràctiques i portafoli
@@ -494,7 +636,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,6 +688,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -579,7 +727,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -588,34 +736,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -798,30 +920,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -865,41 +963,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -907,46 +1014,42 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -955,88 +1058,71 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1050,55 +1136,83 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1115,6 +1229,511 @@
         <patternFill patternType="none"/>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1126,6 +1745,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{84CC0120-28C3-47E2-8D0C-1CCEC2E9688F}" name="Tabla1" displayName="Tabla1" ref="C13:O47" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3" headerRowBorderDxfId="17">
+  <autoFilter ref="C13:O47" xr:uid="{84CC0120-28C3-47E2-8D0C-1CCEC2E9688F}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{355FF68C-E8E0-4E0E-8D42-A3A1AE5BB265}" name="Codi ACT" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{E9E161F7-F853-4977-AFED-1D49595E1068}" name="Codi _x000a_NUM ACT" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{BCE03E48-9E8A-467A-8521-B7985FF4851A}" name="Còdi PE/PR" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{B8178A5A-7F3B-4589-AC47-0B9859EE018D}" name="Nom de l'activitat" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{DD358866-5DC6-4D01-BF63-5FBF6BDE4CE4}" name="RA1" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{2A9C1A14-A107-47A8-AA8B-2A44653C8B4B}" name="RA2" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{B8FEA65F-C801-4C3E-A329-881DC065324F}" name="RA3" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{9C401D72-0B26-4C96-A5D2-EEFC2CCC46F8}" name="RA4" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{6A5621B1-CDCE-49BE-9D1B-2270C2B59A0E}" name="RA5" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{EA630A9D-CE91-4B86-A402-0FE87F0135F9}" name="RA6" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{A891F648-E1D1-4619-9487-7A6BD958D239}" name="RA7" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{9EF9B125-E42D-4977-8D0C-535A86F4B6E5}" name="RE" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{06C92450-5381-4B5C-BC21-D576C8FBF1EF}" name="CAs" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1415,30 +2056,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="32.21875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="49.77734375" customWidth="1"/>
+    <col min="7" max="11" width="9.77734375" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" customWidth="1"/>
     <col min="14" max="14" width="13.5546875" customWidth="1"/>
-    <col min="15" max="21" width="10.77734375" customWidth="1"/>
+    <col min="15" max="15" width="45.77734375" customWidth="1"/>
+    <col min="16" max="21" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="24" customHeight="1" thickBot="1">
+    <row r="1" spans="1:23" ht="24" customHeight="1">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1451,1227 +2089,1384 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="43.5" customHeight="1" thickBot="1">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="5"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
     </row>
     <row r="3" spans="1:23" ht="41.25" customHeight="1">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12" t="s">
+      <c r="M3" s="9"/>
+      <c r="N3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="13"/>
+      <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:23" ht="46.5" customHeight="1">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="17" t="s">
+      <c r="M4" s="9"/>
+      <c r="N4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="13"/>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:23" ht="41.25" customHeight="1">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="17" t="s">
+      <c r="M5" s="9"/>
+      <c r="N5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="13"/>
+      <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:23" ht="55.5" customHeight="1">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="13"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:23" ht="18" customHeight="1">
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="23"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="21"/>
     </row>
     <row r="8" spans="1:23" ht="8.25" customHeight="1" thickBot="1">
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="28"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="26"/>
     </row>
     <row r="9" spans="1:23" ht="50.25" customHeight="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-    </row>
-    <row r="10" spans="1:23" ht="97.95" customHeight="1">
-      <c r="B10" s="33" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+    </row>
+    <row r="10" spans="1:23" ht="409.6" customHeight="1">
+      <c r="B10" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="35"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
     </row>
     <row r="11" spans="1:23" ht="24" customHeight="1">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="13"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
     </row>
     <row r="12" spans="1:23" ht="31.5" customHeight="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="31">
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="H12" s="31">
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="I12" s="31">
+        <v>0.18</v>
+      </c>
+      <c r="J12" s="31">
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="K12" s="31">
+        <v>0.18</v>
+      </c>
+      <c r="L12" s="31">
+        <v>0.18</v>
+      </c>
+      <c r="M12" s="31">
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="N12" s="31">
         <v>0.1</v>
       </c>
-      <c r="H12" s="40">
+      <c r="O12" s="31"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+    </row>
+    <row r="13" spans="1:23" ht="36">
+      <c r="A13" s="32"/>
+      <c r="B13" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+    </row>
+    <row r="14" spans="1:23" ht="36">
+      <c r="B14" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="18">
+      <c r="B15" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="31">
+        <v>0.15</v>
+      </c>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="18">
+      <c r="B16" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="18">
+      <c r="B17" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="18">
+      <c r="B18" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="18">
+      <c r="B19" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B20" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B21" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B22" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B23" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31">
         <v>0.1</v>
       </c>
-      <c r="I12" s="40">
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B24" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B25" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B26" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B27" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B28" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B29" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B30" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B31" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31">
         <v>0.2</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B32" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="15.75" customHeight="1">
+      <c r="B33" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31">
         <v>0.1</v>
       </c>
-      <c r="K12" s="40">
-        <v>0.2</v>
-      </c>
-      <c r="L12" s="40">
-        <v>0.2</v>
-      </c>
-      <c r="M12" s="40">
+      <c r="K33" s="31">
         <v>0.1</v>
       </c>
-      <c r="N12">
-        <f>SUM(G12:M12)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-    </row>
-    <row r="13" spans="1:23" ht="36">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-    </row>
-    <row r="14" spans="1:23" ht="36">
-      <c r="B14" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="49" t="s">
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="15.75" customHeight="1">
+      <c r="B34" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="40">
-        <v>0.05</v>
-      </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-    </row>
-    <row r="15" spans="1:23" ht="18">
-      <c r="B15" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="49" t="s">
+      <c r="D34" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="K34" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" customHeight="1">
+      <c r="B35" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="40">
-        <v>0.15</v>
-      </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-    </row>
-    <row r="16" spans="1:23" ht="18">
-      <c r="B16" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="49" t="s">
+      <c r="D35" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="K35" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="15.75" customHeight="1">
+      <c r="B36" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="40">
+      <c r="D36" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="K36" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="56" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15.75" customHeight="1">
+      <c r="B37" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="K37" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15.75" customHeight="1">
+      <c r="B38" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15.75" customHeight="1">
+      <c r="B39" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="15.75" customHeight="1">
+      <c r="B40" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31">
         <v>0.4</v>
       </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-    </row>
-    <row r="17" spans="2:13" ht="18">
-      <c r="B17" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="40">
-        <v>0.4</v>
-      </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-    </row>
-    <row r="18" spans="2:13" ht="18">
-      <c r="B18" s="46" t="s">
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="15.75" customHeight="1">
+      <c r="B41" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="N41" s="31"/>
+      <c r="O41" s="56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="15.75" customHeight="1">
+      <c r="B42" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="N42" s="31"/>
+      <c r="O42" s="56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="15.75" customHeight="1">
+      <c r="B43" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31">
+        <v>0.35</v>
+      </c>
+      <c r="N43" s="31"/>
+      <c r="O43" s="56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="15.75" customHeight="1">
+      <c r="B44" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="N44" s="31"/>
+      <c r="O44" s="56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="15.75" customHeight="1">
+      <c r="B45" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31">
+        <v>0.35</v>
+      </c>
+      <c r="N45" s="31"/>
+      <c r="O45" s="56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="15.75" customHeight="1">
+      <c r="B46" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40">
-        <v>0.2</v>
-      </c>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-    </row>
-    <row r="19" spans="2:13" ht="18">
-      <c r="B19" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-    </row>
-    <row r="20" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B20" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-    </row>
-    <row r="21" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B21" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40">
+      <c r="D46" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="F46" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31">
         <v>0.3</v>
       </c>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-    </row>
-    <row r="22" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B22" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-    </row>
-    <row r="23" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B23" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40">
-        <v>0.1</v>
-      </c>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-    </row>
-    <row r="24" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B24" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-    </row>
-    <row r="25" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B25" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40">
-        <v>0.3</v>
-      </c>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-    </row>
-    <row r="26" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B26" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-    </row>
-    <row r="27" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B27" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40">
-        <v>0.1</v>
-      </c>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-    </row>
-    <row r="28" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B28" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-    </row>
-    <row r="29" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B29" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40">
-        <v>0.3</v>
-      </c>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-    </row>
-    <row r="30" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B30" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40">
-        <v>0.1</v>
-      </c>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-    </row>
-    <row r="31" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B31" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40">
-        <v>0.2</v>
-      </c>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-    </row>
-    <row r="32" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B32" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="K32" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-    </row>
-    <row r="33" spans="1:23" ht="15.75" customHeight="1">
-      <c r="B33" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40">
-        <v>0.1</v>
-      </c>
-      <c r="K33" s="40">
-        <v>0.1</v>
-      </c>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-    </row>
-    <row r="34" spans="1:23" ht="15.75" customHeight="1">
-      <c r="B34" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="K34" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-    </row>
-    <row r="35" spans="1:23" ht="15.75" customHeight="1">
-      <c r="B35" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="K35" s="40">
-        <v>0.3</v>
-      </c>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-    </row>
-    <row r="36" spans="1:23" ht="15.75" customHeight="1">
-      <c r="B36" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="K36" s="40">
-        <v>0.3</v>
-      </c>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-    </row>
-    <row r="37" spans="1:23" ht="15.75" customHeight="1">
-      <c r="B37" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="F37" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40">
-        <v>0.3</v>
-      </c>
-      <c r="K37" s="40">
-        <v>0.3</v>
-      </c>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-    </row>
-    <row r="38" spans="1:23" ht="15.75" customHeight="1">
-      <c r="B38" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F38" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="M38" s="40"/>
-    </row>
-    <row r="39" spans="1:23" ht="15.75" customHeight="1">
-      <c r="B39" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="F39" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" ht="15.75" customHeight="1">
-      <c r="B40" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="E40" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="F40" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40">
-        <v>0.4</v>
-      </c>
-      <c r="M40" s="40"/>
-    </row>
-    <row r="41" spans="1:23" ht="15.75" customHeight="1">
-      <c r="B41" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="F41" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" ht="15.75" customHeight="1">
-      <c r="B42" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="F42" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" ht="15.75" customHeight="1">
-      <c r="B43" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="F43" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="15.75" customHeight="1">
-      <c r="B44" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="E44" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="F44" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="15.75" customHeight="1">
-      <c r="B45" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="E45" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="F45" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" ht="15.75" customHeight="1">
-      <c r="B46" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="E46" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="F46" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40">
-        <v>0.3</v>
+      <c r="N46" s="31"/>
+      <c r="O46" s="56" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A47" s="55"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="G47" s="58">
+      <c r="A47" s="46"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="G47" s="49">
         <f t="shared" ref="G47:M47" si="0">SUM(G14:G46)</f>
         <v>1</v>
       </c>
-      <c r="H47" s="58">
+      <c r="H47" s="49">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I47" s="58">
+      <c r="I47" s="49">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J47" s="58">
+      <c r="J47" s="49">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K47" s="58">
+      <c r="K47" s="49">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L47" s="58">
+      <c r="L47" s="49">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M47" s="58">
+      <c r="M47" s="49">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N47" s="55"/>
-      <c r="O47" s="55"/>
-      <c r="P47" s="55"/>
-      <c r="Q47" s="55"/>
-      <c r="R47" s="55"/>
-      <c r="S47" s="55"/>
-      <c r="T47" s="55"/>
-      <c r="U47" s="55"/>
-      <c r="V47" s="55"/>
-      <c r="W47" s="55"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="46"/>
+      <c r="R47" s="46"/>
+      <c r="S47" s="46"/>
+      <c r="T47" s="46"/>
+      <c r="U47" s="46"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="46"/>
     </row>
     <row r="48" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A48" s="59"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="58"/>
-      <c r="M48" s="60"/>
-      <c r="N48" s="59"/>
-      <c r="O48" s="59"/>
-      <c r="P48" s="59"/>
-      <c r="Q48" s="59"/>
-      <c r="R48" s="59"/>
-      <c r="S48" s="59"/>
-      <c r="T48" s="59"/>
-      <c r="U48" s="59"/>
-    </row>
-    <row r="49" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A49" s="59"/>
-      <c r="B49" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="49"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="73"/>
+      <c r="Q48" s="50"/>
+      <c r="R48" s="50"/>
+      <c r="S48" s="50"/>
+      <c r="T48" s="50"/>
+      <c r="U48" s="50"/>
+      <c r="V48" s="50"/>
+      <c r="W48" s="50"/>
+    </row>
+    <row r="49" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A49" s="50"/>
+      <c r="B49" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
       <c r="F49" s="61"/>
       <c r="G49" s="61"/>
       <c r="H49" s="61"/>
@@ -2679,233 +3474,269 @@
       <c r="J49" s="61"/>
       <c r="K49" s="61"/>
       <c r="L49" s="61"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="59"/>
-      <c r="O49" s="59"/>
-      <c r="P49" s="59"/>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="59"/>
-      <c r="S49" s="59"/>
-      <c r="T49" s="59"/>
-      <c r="U49" s="59"/>
-    </row>
-    <row r="50" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A50" s="59"/>
-      <c r="B50" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="64"/>
-      <c r="M50" s="65"/>
-      <c r="N50" s="59"/>
-      <c r="O50" s="59"/>
-      <c r="P50" s="59"/>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="59"/>
-      <c r="S50" s="59"/>
-      <c r="T50" s="59"/>
-      <c r="U50" s="59"/>
-    </row>
-    <row r="51" spans="1:21" ht="15.75" customHeight="1">
-      <c r="B51" s="62"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="61"/>
-      <c r="M51" s="67"/>
-    </row>
-    <row r="52" spans="1:21" ht="15.75" customHeight="1">
-      <c r="B52" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="32"/>
-    </row>
-    <row r="53" spans="1:21" ht="233.25" customHeight="1">
-      <c r="B53" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="C53" s="69"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="69"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="69"/>
-      <c r="L53" s="69"/>
-      <c r="M53" s="70"/>
-    </row>
-    <row r="54" spans="1:21" ht="15.75" customHeight="1">
-      <c r="B54" s="62"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="72"/>
-      <c r="K54" s="72"/>
-      <c r="L54" s="72"/>
-      <c r="M54" s="67"/>
-    </row>
-    <row r="55" spans="1:21" ht="15.75" customHeight="1">
-      <c r="B55" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="32"/>
-    </row>
-    <row r="56" spans="1:21" ht="408.75" customHeight="1">
-      <c r="B56" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="C56" s="69"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="69"/>
-      <c r="I56" s="69"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="69"/>
-      <c r="L56" s="69"/>
-      <c r="M56" s="70"/>
-    </row>
-    <row r="57" spans="1:21" ht="15.75" customHeight="1">
-      <c r="B57" s="38"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="58"/>
-      <c r="L57" s="58"/>
-      <c r="M57" s="67"/>
-    </row>
-    <row r="58" spans="1:21" ht="15.75" customHeight="1">
-      <c r="B58" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="32"/>
-    </row>
-    <row r="59" spans="1:21" ht="15.75" customHeight="1">
-      <c r="B59" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="C59" s="69"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69"/>
-      <c r="J59" s="69"/>
-      <c r="K59" s="69"/>
-      <c r="L59" s="69"/>
-      <c r="M59" s="70"/>
-    </row>
-    <row r="60" spans="1:21" ht="15.75" customHeight="1">
-      <c r="B60" s="38"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="58"/>
-      <c r="L60" s="58"/>
-      <c r="M60" s="67"/>
-    </row>
-    <row r="61" spans="1:21" ht="15.75" customHeight="1">
-      <c r="B61" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="32"/>
-    </row>
-    <row r="62" spans="1:21" ht="168.75" customHeight="1">
-      <c r="B62" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="C62" s="69"/>
-      <c r="D62" s="69"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="69"/>
-      <c r="J62" s="69"/>
-      <c r="K62" s="69"/>
-      <c r="L62" s="69"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="61"/>
+      <c r="P49" s="73"/>
+      <c r="Q49" s="50"/>
+      <c r="R49" s="50"/>
+      <c r="S49" s="50"/>
+      <c r="T49" s="50"/>
+      <c r="U49" s="50"/>
+    </row>
+    <row r="50" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A50" s="50"/>
+      <c r="B50" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="54"/>
+      <c r="O50" s="72"/>
+      <c r="P50" s="73"/>
+      <c r="Q50" s="50"/>
+      <c r="R50" s="50"/>
+      <c r="S50" s="50"/>
+      <c r="T50" s="50"/>
+      <c r="U50" s="50"/>
+      <c r="V50" s="50"/>
+      <c r="W50" s="50"/>
+    </row>
+    <row r="51" spans="1:23" ht="15.75" customHeight="1">
+      <c r="B51" s="52"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="64"/>
+      <c r="P51" s="74"/>
+    </row>
+    <row r="52" spans="1:23" ht="15.75" customHeight="1">
+      <c r="B52" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="61"/>
+      <c r="M52" s="61"/>
+      <c r="N52" s="61"/>
+      <c r="O52" s="61"/>
+      <c r="P52" s="74"/>
+    </row>
+    <row r="53" spans="1:23" ht="392.4" customHeight="1">
+      <c r="B53" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="63"/>
+      <c r="N53" s="63"/>
+      <c r="O53" s="63"/>
+      <c r="P53" s="74"/>
+    </row>
+    <row r="54" spans="1:23" ht="15.75" customHeight="1">
+      <c r="B54" s="65"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="66"/>
+      <c r="J54" s="66"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="66"/>
+      <c r="M54" s="66"/>
+      <c r="N54" s="66"/>
+      <c r="O54" s="66"/>
+      <c r="P54" s="74"/>
+    </row>
+    <row r="55" spans="1:23" ht="15.75" customHeight="1">
+      <c r="B55" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="61"/>
+      <c r="L55" s="61"/>
+      <c r="M55" s="61"/>
+      <c r="N55" s="61"/>
+      <c r="O55" s="61"/>
+      <c r="P55" s="74"/>
+    </row>
+    <row r="56" spans="1:23" ht="408.75" customHeight="1">
+      <c r="B56" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="63"/>
+      <c r="M56" s="63"/>
+      <c r="N56" s="63"/>
+      <c r="O56" s="63"/>
+      <c r="P56" s="74"/>
+    </row>
+    <row r="57" spans="1:23" ht="15.75" customHeight="1">
+      <c r="B57" s="65"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
+      <c r="J57" s="66"/>
+      <c r="K57" s="66"/>
+      <c r="L57" s="66"/>
+      <c r="M57" s="66"/>
+      <c r="N57" s="66"/>
+      <c r="O57" s="66"/>
+      <c r="P57" s="74"/>
+    </row>
+    <row r="58" spans="1:23" ht="15.75" customHeight="1">
+      <c r="B58" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="61"/>
+      <c r="J58" s="61"/>
+      <c r="K58" s="61"/>
+      <c r="L58" s="61"/>
+      <c r="M58" s="61"/>
+      <c r="N58" s="61"/>
+      <c r="O58" s="61"/>
+      <c r="P58" s="74"/>
+    </row>
+    <row r="59" spans="1:23" ht="15.75" customHeight="1">
+      <c r="B59" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="68"/>
+      <c r="M59" s="68"/>
+      <c r="N59" s="68"/>
+      <c r="O59" s="68"/>
+      <c r="P59" s="74"/>
+    </row>
+    <row r="60" spans="1:23" ht="15.75" customHeight="1">
+      <c r="B60" s="67"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="68"/>
+      <c r="N60" s="68"/>
+      <c r="O60" s="68"/>
+      <c r="P60" s="74"/>
+    </row>
+    <row r="61" spans="1:23" ht="15.75" customHeight="1">
+      <c r="B61" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="61"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="61"/>
+      <c r="P61" s="74"/>
+    </row>
+    <row r="62" spans="1:23" ht="168.75" customHeight="1">
+      <c r="B62" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="70"/>
+      <c r="J62" s="70"/>
+      <c r="K62" s="70"/>
+      <c r="L62" s="70"/>
       <c r="M62" s="70"/>
-    </row>
-    <row r="63" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N62" s="70"/>
+      <c r="O62" s="70"/>
+      <c r="P62" s="74"/>
+    </row>
+    <row r="63" spans="1:23" ht="15.75" customHeight="1">
       <c r="B63" s="75"/>
       <c r="C63" s="76"/>
       <c r="D63" s="76"/>
       <c r="E63" s="76"/>
-      <c r="F63" s="77"/>
-      <c r="G63" s="78"/>
-      <c r="H63" s="78"/>
-      <c r="I63" s="78"/>
-      <c r="J63" s="78"/>
-      <c r="K63" s="78"/>
-      <c r="L63" s="78"/>
-      <c r="M63" s="79"/>
-    </row>
-    <row r="64" spans="1:21" ht="15.75" customHeight="1">
+      <c r="F63" s="76"/>
+      <c r="G63" s="76"/>
+      <c r="H63" s="76"/>
+      <c r="I63" s="76"/>
+      <c r="J63" s="76"/>
+      <c r="K63" s="76"/>
+      <c r="L63" s="76"/>
+      <c r="M63" s="76"/>
+      <c r="N63" s="76"/>
+      <c r="O63" s="77"/>
+    </row>
+    <row r="64" spans="1:23" ht="15.75" customHeight="1">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -14150,35 +14981,36 @@
       <c r="L1000" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="B49:M49"/>
+  <mergeCells count="27">
+    <mergeCell ref="B55:O55"/>
+    <mergeCell ref="B58:O58"/>
+    <mergeCell ref="B61:O61"/>
+    <mergeCell ref="B62:O62"/>
+    <mergeCell ref="B63:O63"/>
+    <mergeCell ref="B59:O60"/>
     <mergeCell ref="F51:L51"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B49:O49"/>
     <mergeCell ref="C5:F5"/>
-    <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="C3:F3"/>
-    <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
     <mergeCell ref="C4:F4"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B52:M52"/>
-    <mergeCell ref="B53:M53"/>
-    <mergeCell ref="B55:M55"/>
-    <mergeCell ref="B56:M56"/>
-    <mergeCell ref="B58:M58"/>
-    <mergeCell ref="B59:M59"/>
-    <mergeCell ref="B61:M61"/>
-    <mergeCell ref="B62:M62"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B52:O52"/>
+    <mergeCell ref="B53:O53"/>
+    <mergeCell ref="B56:O56"/>
   </mergeCells>
-  <conditionalFormatting sqref="G47:M47">
+  <conditionalFormatting sqref="G47:O47">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
       <formula>1</formula>
     </cfRule>
@@ -14196,5 +15028,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>